--- a/braph2/workflows/MultiplexMRI/MultiplexMRI_examples/xls/Group2_MRI_data_layer2.xlsx
+++ b/braph2/workflows/MultiplexMRI/MultiplexMRI_examples/xls/Group2_MRI_data_layer2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kise-my.sharepoint.com/personal/anna_canal_garcia_ki_se/Documents/Dokument/PhD/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kise-my.sharepoint.com/personal/anna_canal_garcia_ki_se/Documents/Dokument/GitHub/Braph-2.0-Matlab/braph2/workflows/MultiplexMRI/MultiplexMRI_examples/xls/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="11_372BDCCB8F79A8B36A3704F0FB5CC233F0A0576A" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9406986B-563B-4D92-B704-C8C9ED219222}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="11_372BDCCB8F79A8B36A3704F0FB5CC233F0A0576A" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D1BE3283-04CF-46FE-9B6C-BF54C349E96E}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5280" yWindow="3366" windowWidth="17280" windowHeight="8994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,45 +31,30 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>SubjectID1</t>
-  </si>
-  <si>
     <t>label1</t>
   </si>
   <si>
     <t>notes1</t>
   </si>
   <si>
-    <t>SubjectID2</t>
-  </si>
-  <si>
     <t>label2</t>
   </si>
   <si>
     <t>notes2</t>
   </si>
   <si>
-    <t>SubjectID3</t>
-  </si>
-  <si>
     <t>label3</t>
   </si>
   <si>
     <t>notes3</t>
   </si>
   <si>
-    <t>SubjectID4</t>
-  </si>
-  <si>
     <t>label4</t>
   </si>
   <si>
     <t>notes4</t>
   </si>
   <si>
-    <t>SubjectID5</t>
-  </si>
-  <si>
     <t>label5</t>
   </si>
   <si>
@@ -89,6 +74,21 @@
   </si>
   <si>
     <t>brain region 5</t>
+  </si>
+  <si>
+    <t>SubjectID6</t>
+  </si>
+  <si>
+    <t>SubjectID7</t>
+  </si>
+  <si>
+    <t>SubjectID8</t>
+  </si>
+  <si>
+    <t>SubjectID9</t>
+  </si>
+  <si>
+    <t>SubjectID10</t>
   </si>
 </sst>
 </file>
@@ -502,7 +502,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B2" sqref="B2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -525,30 +525,30 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="D2" s="4">
         <v>0.37128205740115938</v>
@@ -568,13 +568,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="D3" s="4">
         <v>0.18368371114612539</v>
@@ -594,13 +594,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D4" s="4">
         <v>7.3559349103685001E-2</v>
@@ -620,13 +620,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D5" s="4">
         <v>0.59062428492849051</v>
@@ -646,13 +646,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D6" s="4">
         <v>0.42866927062133209</v>

--- a/braph2/workflows/MultiplexMRI/MultiplexMRI_examples/xls/Group2_MRI_data_layer2.xlsx
+++ b/braph2/workflows/MultiplexMRI/MultiplexMRI_examples/xls/Group2_MRI_data_layer2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kise-my.sharepoint.com/personal/anna_canal_garcia_ki_se/Documents/Dokument/GitHub/Braph-2.0-Matlab/braph2/workflows/MultiplexMRI/MultiplexMRI_examples/xls/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="11_372BDCCB8F79A8B36A3704F0FB5CC233F0A0576A" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D1BE3283-04CF-46FE-9B6C-BF54C349E96E}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="11_372BDCCB8F79A8B36A3704F0FB5CC233F0A0576A" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{87BF7D99-D1BB-4D4F-9706-AAC01AFC9E73}"/>
   <bookViews>
-    <workbookView xWindow="5280" yWindow="3366" windowWidth="17280" windowHeight="8994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>SubjectID10</t>
+  </si>
+  <si>
+    <t>GroupName1</t>
+  </si>
+  <si>
+    <t>TestGroup1</t>
   </si>
 </sst>
 </file>
@@ -120,7 +126,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -143,22 +149,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -499,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C6"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -515,158 +548,173 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="3" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D5" s="5">
         <v>0.37128205740115938</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E5" s="5">
         <v>0.27818355530526973</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F5" s="5">
         <v>0.67743959041089385</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G5" s="5">
         <v>0.66742822209572694</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H5" s="5">
         <v>6.137195000794482E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="3" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D6" s="5">
         <v>0.18368371114612539</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E6" s="5">
         <v>0.80406326218441149</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F6" s="5">
         <v>0.85531588258937696</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G6" s="5">
         <v>0.79481949055660306</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H6" s="5">
         <v>3.3162445082720482E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="3" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D7" s="5">
         <v>7.3559349103685001E-2</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E7" s="5">
         <v>0.70143093625032327</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F7" s="5">
         <v>0.13617943078836911</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G7" s="5">
         <v>0.61023612236249702</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H7" s="5">
         <v>0.8594630732318862</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="3" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D8" s="5">
         <v>0.59062428492849051</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E8" s="5">
         <v>0.99344401341776178</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F8" s="5">
         <v>0.2001470190696194</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G8" s="5">
         <v>0.34112462317162001</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H8" s="5">
         <v>0.54085743743045855</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="3" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D9" s="5">
         <v>0.42866927062133209</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E9" s="5">
         <v>0.38122869235777362</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F9" s="5">
         <v>0.1759853695054947</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G9" s="5">
         <v>0.58081293405527623</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H9" s="5">
         <v>7.5161449143859027E-3</v>
       </c>
     </row>

--- a/braph2/workflows/MultiplexMRI/MultiplexMRI_examples/xls/Group2_MRI_data_layer2.xlsx
+++ b/braph2/workflows/MultiplexMRI/MultiplexMRI_examples/xls/Group2_MRI_data_layer2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kise-my.sharepoint.com/personal/anna_canal_garcia_ki_se/Documents/Dokument/GitHub/Braph-2.0-Matlab/braph2/workflows/MultiplexMRI/MultiplexMRI_examples/xls/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="11_372BDCCB8F79A8B36A3704F0FB5CC233F0A0576A" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{87BF7D99-D1BB-4D4F-9706-AAC01AFC9E73}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="11_372BDCCB8F79A8B36A3704F0FB5CC233F0A0576A" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1785FC25-43F8-4B90-B9B0-BB568ACF2ABF}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5280" yWindow="3366" windowWidth="17280" windowHeight="8994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,10 +91,10 @@
     <t>SubjectID10</t>
   </si>
   <si>
-    <t>GroupName1</t>
-  </si>
-  <si>
-    <t>TestGroup1</t>
+    <t>GroupName2</t>
+  </si>
+  <si>
+    <t>TestGroup2</t>
   </si>
 </sst>
 </file>
@@ -535,7 +535,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -559,7 +559,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
